--- a/public/assets/theme/import_brand.xlsx
+++ b/public/assets/theme/import_brand.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>slug</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Tên thương hiệu</t>
   </si>
@@ -88,14 +85,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -312,12 +306,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="20.29"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="4" width="32.29"/>
-    <col customWidth="1" min="5" max="5" width="17.43"/>
-    <col customWidth="1" min="6" max="6" width="20.0"/>
+    <col customWidth="1" min="1" max="1" width="20.29"/>
+    <col customWidth="1" min="2" max="2" width="24.57"/>
+    <col customWidth="1" min="3" max="3" width="32.29"/>
+    <col customWidth="1" min="4" max="4" width="17.43"/>
+    <col customWidth="1" min="5" max="5" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -330,19 +323,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -355,29 +345,23 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
